--- a/biology/Médecine/Syndrome_orofaciodigital_type_1/Syndrome_orofaciodigital_type_1.xlsx
+++ b/biology/Médecine/Syndrome_orofaciodigital_type_1/Syndrome_orofaciodigital_type_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome orofaciodigital type 1 est une association malformative de la bouche, d’un visage particulier, des doigts ou des orteils, du cerveau, et des reins.
@@ -517,7 +529,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Anomalie de la bouche
 Langue bifide dans 2/3 des malades
@@ -568,11 +582,13 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Site en français de renseignement sur les maladies rares et les médicaments orphelins
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 131300 [1]
-(en) Helga V Toriello, Izolda Nunes Guimaraes, Danilo Moretti-Ferreira, Oral-Facial-Digital Syndrome Type I in GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2006 [2]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Site en français de renseignement sur les maladies rares et les médicaments orphelins
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 131300 
+(en) Helga V Toriello, Izolda Nunes Guimaraes, Danilo Moretti-Ferreira, Oral-Facial-Digital Syndrome Type I in GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2006 </t>
         </is>
       </c>
     </row>
